--- a/BloodstreamAPI/testData/layoutConfig.xlsx
+++ b/BloodstreamAPI/testData/layoutConfig.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22624"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE5C4CB2-E3E4-4AFD-8590-8EB7EF4C2507}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A92DED09-2752-41D9-BE18-40B40C71B977}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13740" windowHeight="9585" tabRatio="715" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" tabRatio="715" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LayoutConfig_GetTab" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="17">
   <si>
     <t>EndPoint</t>
   </si>
@@ -64,9 +64,6 @@
     <t>Assert409</t>
   </si>
   <si>
-    <t>Layout5</t>
-  </si>
-  <si>
     <t>dashboardSpecific</t>
   </si>
   <si>
@@ -74,6 +71,12 @@
   </si>
   <si>
     <t>/configuration/system/layoutList</t>
+  </si>
+  <si>
+    <t>Tab000000000</t>
+  </si>
+  <si>
+    <t>123$</t>
   </si>
 </sst>
 </file>
@@ -130,7 +133,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -155,7 +158,25 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -441,25 +462,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDA324F4-6303-45A9-B72B-667907D5EA0F}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B14"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" customWidth="1"/>
-    <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" customWidth="1"/>
-    <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="8"/>
+      <c r="B1" s="14"/>
     </row>
     <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -474,7 +495,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -486,10 +507,10 @@
       <c r="B5" s="4"/>
     </row>
     <row r="6" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="8"/>
+      <c r="B6" s="14"/>
     </row>
     <row r="7" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
@@ -516,10 +537,10 @@
       <c r="B10" s="4"/>
     </row>
     <row r="11" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="8"/>
+      <c r="B11" s="14"/>
     </row>
     <row r="12" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
@@ -534,7 +555,7 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -552,13 +573,13 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.7109375" customWidth="1"/>
-    <col min="2" max="2" width="30.85546875" customWidth="1"/>
+    <col min="1" max="1" width="48.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -614,7 +635,7 @@
     </row>
     <row r="11" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="1" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -642,8 +663,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" customWidth="1"/>
-    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="1" max="1" width="35.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="23" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -715,20 +736,22 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33" customWidth="1"/>
+    <col min="1" max="1" width="33" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17" style="10" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -737,7 +760,7 @@
       <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -746,28 +769,28 @@
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="4">
-        <v>171</v>
+        <v>16</v>
+      </c>
+      <c r="C3" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
+      <c r="C4" s="9"/>
     </row>
     <row r="5" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
+      <c r="C5" s="9"/>
     </row>
     <row r="6" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
     </row>
     <row r="7" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
@@ -776,7 +799,9 @@
       <c r="B7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="3"/>
+      <c r="C7" s="8" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="8" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
@@ -785,21 +810,21 @@
       <c r="B8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="9">
         <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
+      <c r="C9" s="9"/>
     </row>
     <row r="10" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
+      <c r="A10" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
     </row>
     <row r="11" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
@@ -808,7 +833,9 @@
       <c r="B11" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="3"/>
+      <c r="C11" s="8" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -817,16 +844,16 @@
       <c r="B12" t="s">
         <v>7</v>
       </c>
-      <c r="C12">
-        <v>1</v>
+      <c r="C12" s="10">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
     </row>
     <row r="15" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
@@ -835,119 +862,138 @@
       <c r="B15" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="3"/>
+      <c r="C15" s="8" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>4</v>
       </c>
-      <c r="B16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
+      <c r="B16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="10">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A14:C14"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CB91AA0-B169-42CC-ADEA-BD713035B49D}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" customWidth="1"/>
+    <col min="1" max="1" width="27.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="8"/>
-    </row>
-    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="B1" s="15"/>
+    </row>
+    <row r="2" spans="1:2" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="4">
+      <c r="B3" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+    <row r="4" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+    </row>
+    <row r="5" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+    </row>
+    <row r="6" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="8"/>
-    </row>
-    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="B6" s="15"/>
+    </row>
+    <row r="7" spans="1:2" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="4">
+      <c r="B8" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+    <row r="9" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+    </row>
+    <row r="10" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+    </row>
+    <row r="11" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="8"/>
-    </row>
-    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="5" t="s">
+      <c r="B11" s="15"/>
+    </row>
+    <row r="12" spans="1:2" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13">
+      <c r="B13" s="13">
         <v>78</v>
       </c>
     </row>
+    <row r="14" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:B1"/>
@@ -955,6 +1001,7 @@
     <mergeCell ref="A11:B11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -962,13 +1009,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2C9F16A-0099-4751-94DA-CC9A5C5629DA}">
   <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.140625" customWidth="1"/>
+    <col min="1" max="1" width="33.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="30" x14ac:dyDescent="0.25">
@@ -983,7 +1030,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
@@ -1004,7 +1051,7 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
@@ -1013,7 +1060,7 @@
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>8</v>
       </c>
@@ -1025,7 +1072,7 @@
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/BloodstreamAPI/testData/layoutConfig.xlsx
+++ b/BloodstreamAPI/testData/layoutConfig.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22624"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A92DED09-2752-41D9-BE18-40B40C71B977}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E5331A-D7F8-479C-A89A-AFD7FAF0DD4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" tabRatio="715" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" tabRatio="715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LayoutConfig_GetTab" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="19">
   <si>
     <t>EndPoint</t>
   </si>
@@ -77,12 +77,19 @@
   </si>
   <si>
     <t>123$</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>786</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -462,27 +469,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDA324F4-6303-45A9-B72B-667907D5EA0F}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="27.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="14"/>
     </row>
-    <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -490,7 +497,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -498,21 +505,21 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
     </row>
-    <row r="5" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
     </row>
-    <row r="6" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="14"/>
     </row>
-    <row r="7" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>0</v>
       </c>
@@ -520,7 +527,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
@@ -528,21 +535,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
     </row>
-    <row r="10" spans="1:2" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
     </row>
-    <row r="11" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="14"/>
     </row>
-    <row r="12" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>0</v>
       </c>
@@ -550,7 +557,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -558,13 +565,47 @@
         <v>15</v>
       </c>
     </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="10"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A16:C16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -578,8 +619,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="48.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="30.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -663,8 +704,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="23" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="23.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -736,14 +777,14 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A14" sqref="A14:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17" style="10" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="33.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="10" width="17.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -771,8 +812,8 @@
       <c r="B3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="9">
-        <v>0</v>
+      <c r="C3" s="11" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -893,14 +934,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CB91AA0-B169-42CC-ADEA-BD713035B49D}">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9.140625" style="13"/>
+    <col min="1" max="1" customWidth="true" width="27.85546875" collapsed="true"/>
+    <col min="2" max="2" style="13" width="9.140625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -1015,7 +1056,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="33.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="30" x14ac:dyDescent="0.25">

--- a/BloodstreamAPI/testData/layoutConfig.xlsx
+++ b/BloodstreamAPI/testData/layoutConfig.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22624"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E5331A-D7F8-479C-A89A-AFD7FAF0DD4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2CD49EC-A210-4A69-A0C7-7401E4D9E398}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" tabRatio="715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" tabRatio="715" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LayoutConfig_GetTab" sheetId="3" r:id="rId1"/>
     <sheet name="LayoutConfig_PostNewTab" sheetId="9" r:id="rId2"/>
-    <sheet name="LayoutConfig_PutUpdateTab" sheetId="10" r:id="rId3"/>
+    <sheet name="LayoutConfig_PostUpdateTab" sheetId="10" r:id="rId3"/>
     <sheet name="LayoutConfig_DeleteTab" sheetId="11" r:id="rId4"/>
     <sheet name="LayoutConfig_GetDeviceType" sheetId="12" r:id="rId5"/>
     <sheet name="LayoutConfig_GetLayoutList" sheetId="13" r:id="rId6"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="27">
   <si>
     <t>EndPoint</t>
   </si>
@@ -79,10 +79,34 @@
     <t>123$</t>
   </si>
   <si>
+    <t>786</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
-    <t>786</t>
+    <t>172</t>
+  </si>
+  <si>
+    <t>deleteTab</t>
+  </si>
+  <si>
+    <t>Layout 1</t>
+  </si>
+  <si>
+    <t>Assert200_1</t>
+  </si>
+  <si>
+    <t>Assert200_0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Layout 6</t>
+  </si>
+  <si>
+    <t>Layout 31</t>
   </si>
 </sst>
 </file>
@@ -140,7 +164,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -168,9 +192,6 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -179,6 +200,20 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -471,8 +506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDA324F4-6303-45A9-B72B-667907D5EA0F}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -484,10 +519,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="14"/>
+      <c r="B1" s="19"/>
     </row>
     <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -501,9 +536,7 @@
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
@@ -514,10 +547,10 @@
       <c r="B5" s="4"/>
     </row>
     <row r="6" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="14"/>
+      <c r="B6" s="19"/>
     </row>
     <row r="7" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
@@ -544,10 +577,10 @@
       <c r="B10" s="4"/>
     </row>
     <row r="11" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="14"/>
+      <c r="B11" s="19"/>
     </row>
     <row r="12" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
@@ -566,11 +599,11 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
@@ -590,12 +623,12 @@
       <c r="B18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="13" t="s">
-        <v>18</v>
+      <c r="C18" s="12" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C19" s="10"/>
+      <c r="C19" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -699,7 +732,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A13"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -709,16 +742,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="19" t="s">
         <v>1</v>
       </c>
+      <c r="B1" s="19"/>
       <c r="C1" s="4"/>
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4"/>
+      <c r="B2" s="14" t="s">
+        <v>20</v>
+      </c>
       <c r="C2" s="4"/>
       <c r="D2" s="2"/>
     </row>
@@ -726,7 +762,9 @@
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4"/>
+      <c r="B3" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="C3" s="4"/>
       <c r="D3" s="2"/>
     </row>
@@ -737,186 +775,215 @@
       <c r="A5" s="4"/>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="19" t="s">
         <v>2</v>
       </c>
+      <c r="B6" s="19"/>
     </row>
     <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="B7" s="14" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="B8" s="10" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:4" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="19" t="s">
         <v>8</v>
       </c>
+      <c r="B10" s="19"/>
     </row>
     <row r="11" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>0</v>
       </c>
+      <c r="B11" s="14" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="12" spans="1:4" s="1" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="B12" s="10" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A6:B6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{347844FB-A3F4-4B12-AACD-FCF4EA5FFF21}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:C17"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="33.0" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="10" width="17.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="18" width="17.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
     </row>
     <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="4" t="s">
+    <row r="3" spans="1:3" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="17"/>
+    </row>
+    <row r="5" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="17"/>
+    </row>
+    <row r="6" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+    </row>
+    <row r="7" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="17"/>
+    </row>
+    <row r="10" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+    </row>
+    <row r="11" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+    </row>
+    <row r="14" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+    </row>
+    <row r="15" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C16" s="18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="9"/>
-    </row>
-    <row r="5" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="9"/>
-    </row>
-    <row r="6" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-    </row>
-    <row r="7" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="9">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="9"/>
-    </row>
-    <row r="10" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-    </row>
-    <row r="11" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-    </row>
-    <row r="15" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="10">
-        <v>122</v>
-      </c>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -925,6 +992,12 @@
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="A14:C14"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3 C2" xr:uid="{0B20C9BD-3548-4ED6-B7C5-700CA8E5575C}">
+      <formula1>1</formula1>
+      <formula2>1000</formula2>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
@@ -934,112 +1007,132 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CB91AA0-B169-42CC-ADEA-BD713035B49D}">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="27.85546875" collapsed="true"/>
-    <col min="2" max="2" style="13" width="9.140625" collapsed="false"/>
+    <col min="2" max="2" style="12" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="15"/>
-    </row>
-    <row r="2" spans="1:2" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="12" t="s">
+    <row r="1" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="20"/>
+    </row>
+    <row r="2" spans="1:2" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:2" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-    </row>
-    <row r="5" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-    </row>
-    <row r="6" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="B3" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+    </row>
+    <row r="5" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+    </row>
+    <row r="6" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="15"/>
-    </row>
-    <row r="7" spans="1:2" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="12" t="s">
+      <c r="B6" s="20"/>
+    </row>
+    <row r="7" spans="1:2" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+    <row r="8" spans="1:2" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-    </row>
-    <row r="10" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-    </row>
-    <row r="11" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
+      <c r="B8" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+    </row>
+    <row r="10" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+    </row>
+    <row r="11" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="15"/>
-    </row>
-    <row r="12" spans="1:2" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="12" t="s">
+      <c r="B11" s="20"/>
+    </row>
+    <row r="12" spans="1:2" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+    <row r="13" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="12">
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="20"/>
+    </row>
+    <row r="16" spans="1:2" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A15:B15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
